--- a/ResultadoEleicoesDistritos/PORTO_PAÇOS DE FERREIRA.xlsx
+++ b/ResultadoEleicoesDistritos/PORTO_PAÇOS DE FERREIRA.xlsx
@@ -597,64 +597,64 @@
         <v>14787</v>
       </c>
       <c r="H2" t="n">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="I2" t="n">
-        <v>1469</v>
+        <v>1490</v>
       </c>
       <c r="J2" t="n">
-        <v>6190</v>
+        <v>6068</v>
       </c>
       <c r="K2" t="n">
         <v>34</v>
       </c>
       <c r="L2" t="n">
-        <v>1689</v>
+        <v>1621</v>
       </c>
       <c r="M2" t="n">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="N2" t="n">
-        <v>1145</v>
+        <v>1056</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R2" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="S2" t="n">
-        <v>695</v>
+        <v>645</v>
       </c>
       <c r="T2" t="n">
-        <v>1057</v>
+        <v>1064</v>
       </c>
       <c r="U2" t="n">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="V2" t="n">
-        <v>9239</v>
+        <v>9536</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>9433</v>
+        <v>9438</v>
       </c>
       <c r="Y2" t="n">
         <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="AA2" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
